--- a/flow chart.xlsx
+++ b/flow chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\fim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9608ED4-BCAE-4F43-B798-5496478DC990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77066DAE-ECDD-4077-856C-07A09307DDFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FE2F8837-6B08-4E68-910D-E1184DA7B64E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Federal UI</t>
   </si>
@@ -170,12 +170,6 @@
     <t>Components of Fiscal Policy</t>
   </si>
   <si>
-    <t>Apply MPCs to each category of Taxes and Transfers and sum them together</t>
-  </si>
-  <si>
-    <t>Y = C + I + G + NX</t>
-  </si>
-  <si>
     <t>Subsidies are payments to businesses, like PPP, the Restaurant Revitalization Fund, or grants to air carriers. We split these up into (essentially) ARP and non-ARP subsidies to give them separate MPCs.</t>
   </si>
   <si>
@@ -191,12 +185,6 @@
     <t>Unemployment Benefits</t>
   </si>
   <si>
-    <t>Forecast Spreadsheet</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t xml:space="preserve">Starting point: each month, the BEA releases (and then revises) nominal data on government expenditures for the most recent quarter (in the NIPA tables). We recategorize this spending into the components of fiscal policy distinguished in the FIM, and then project it forward. </t>
   </si>
   <si>
@@ -221,17 +209,50 @@
     <t>ARP Rebate Checks (Federal)</t>
   </si>
   <si>
-    <t>Level change in G (nominal) due to fiscal policy (we separate into federal G and state G)</t>
-  </si>
-  <si>
-    <t>Level change in C (nominal) due to fiscal policy</t>
+    <t>Apply deflators to convert to reals, subtract counterfactual taxes and transfers (grown with potential since the previous quarter), and apply MPCs to each category of Taxes and Transfers.</t>
+  </si>
+  <si>
+    <t>Conversion to growth rates</t>
+  </si>
+  <si>
+    <t>Fiscal impact of federal spending</t>
+  </si>
+  <si>
+    <t>Fiscal impact of state spending</t>
+  </si>
+  <si>
+    <t>Fiscal impact of taxes and transfers</t>
+  </si>
+  <si>
+    <t>Level change in C (nominal) due to fiscal policy, relative to counterfactual</t>
+  </si>
+  <si>
+    <t>Level change in G (nominal) due to fiscal policy (we separate into federal G and state G), relative to counterfactual</t>
+  </si>
+  <si>
+    <t>Headline FIM</t>
+  </si>
+  <si>
+    <t>Apply deflators to convert to reals, subtract counterfactual purchases (grown with potential since the previous quarter)</t>
+  </si>
+  <si>
+    <t>(Y = C + I + G + NX)</t>
+  </si>
+  <si>
+    <t>Forecast Spreadsheet (organizing and projecting the level fiscal policy)</t>
+  </si>
+  <si>
+    <t>Code (converting the level of fiscal policy into the FIM)</t>
+  </si>
+  <si>
+    <t>Conversion to growth rates: growth in deltaC times share of C in GDP, over growth in GDP since previous quarter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,13 +279,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -284,8 +298,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +393,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -546,39 +581,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -592,50 +601,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -648,34 +618,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,30 +632,131 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,15 +787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>203199</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:colOff>275770</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>931637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1179286</xdr:colOff>
+      <xdr:colOff>1823357</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1043215</xdr:rowOff>
+      <xdr:rowOff>290286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -760,8 +810,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11769270" y="5939064"/>
-          <a:ext cx="976087" cy="846365"/>
+          <a:off x="11841841" y="8687708"/>
+          <a:ext cx="1547587" cy="465364"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -797,15 +847,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
+      <xdr:colOff>244929</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
+      <xdr:rowOff>599622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1115786</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>300483</xdr:rowOff>
+      <xdr:colOff>1805215</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>154215</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -820,8 +870,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11783785" y="2087337"/>
-          <a:ext cx="898072" cy="725932"/>
+          <a:off x="11811000" y="2477408"/>
+          <a:ext cx="1560286" cy="561521"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -849,6 +899,197 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>259764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1708239</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>321973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Right 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{155B81A9-FC67-400B-BD0B-9D5AE717DB01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15332887" y="1815961"/>
+          <a:ext cx="1463310" cy="402068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1202391</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1627976</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>111745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arrow: Right 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB106AFB-E1EC-4355-B792-E43064001A34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17077041">
+          <a:off x="14761680" y="5915733"/>
+          <a:ext cx="3478580" cy="425585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>84</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>658176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23570</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Right Brace 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F8A524-BB29-49BE-8EC1-53C9F0372771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19564132" y="1535081"/>
+          <a:ext cx="628248" cy="2768808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1154,383 +1395,1654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F58E25F-5BF0-4F18-8507-E6AE2A5E66AF}">
-  <dimension ref="C1:S33"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="48" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="62.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="62.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.81640625" customWidth="1"/>
+    <col min="9" max="9" width="37.1796875" customWidth="1"/>
+    <col min="11" max="11" width="2.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C1" s="67" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+    </row>
+    <row r="3" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+    </row>
+    <row r="4" spans="1:25" ht="52" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+    </row>
+    <row r="5" spans="1:25" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+    </row>
+    <row r="6" spans="1:25" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+    </row>
+    <row r="7" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+    </row>
+    <row r="8" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+    </row>
+    <row r="10" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+    </row>
+    <row r="11" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+    </row>
+    <row r="13" spans="1:25" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+    </row>
+    <row r="14" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+    </row>
+    <row r="16" spans="1:25" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+    </row>
+    <row r="17" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+    </row>
+    <row r="18" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+    </row>
+    <row r="19" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+    </row>
+    <row r="21" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+    </row>
+    <row r="22" spans="1:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="51"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+    </row>
+    <row r="24" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+    </row>
+    <row r="25" spans="1:25" ht="87" x14ac:dyDescent="0.35">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="51"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+    </row>
+    <row r="26" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-    </row>
-    <row r="3" spans="3:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="61"/>
-      <c r="G3" s="62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="3:19" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="66"/>
-      <c r="D4" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="3:19" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="31"/>
-      <c r="D6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="3:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="C7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="3:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="D9" s="4"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C12" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="3:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="39"/>
-      <c r="D13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="64"/>
-    </row>
-    <row r="14" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="52"/>
-      <c r="D14" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="64"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="64"/>
-    </row>
-    <row r="16" spans="3:19" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="64"/>
-    </row>
-    <row r="17" spans="3:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="6"/>
-      <c r="D17" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="64"/>
-    </row>
-    <row r="18" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="64"/>
-    </row>
-    <row r="19" spans="3:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="39"/>
-      <c r="D19" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="64"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="64"/>
-    </row>
-    <row r="21" spans="3:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="6"/>
-      <c r="D21" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="64"/>
-    </row>
-    <row r="22" spans="3:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="64"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C23" s="38"/>
-      <c r="D23" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="64"/>
-    </row>
-    <row r="24" spans="3:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="45"/>
-      <c r="D24" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="64"/>
-    </row>
-    <row r="25" spans="3:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="C25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="64"/>
-    </row>
-    <row r="26" spans="3:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="64"/>
-    </row>
-    <row r="27" spans="3:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C27" s="6" t="s">
+      <c r="F26" s="51"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+    </row>
+    <row r="27" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="64"/>
-    </row>
-    <row r="28" spans="3:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C28" s="6" t="s">
+      <c r="F27" s="51"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+    </row>
+    <row r="28" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="64"/>
-    </row>
-    <row r="29" spans="3:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="6"/>
-      <c r="D29" s="49" t="s">
+      <c r="E28" s="65"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+    </row>
+    <row r="29" spans="1:25" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="64"/>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C30" s="38" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="64"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C31" s="38"/>
-      <c r="D31" s="21" t="s">
+      <c r="F30" s="51"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="64"/>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C32" s="38"/>
-      <c r="D32" s="21" t="s">
+      <c r="E31" s="56"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="64"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C33" s="38"/>
-      <c r="D33" s="22" t="s">
+      <c r="F32" s="51"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="65"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C3:C4"/>
+  <mergeCells count="25">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:S1"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F5:F8"/>
@@ -1540,12 +3052,21 @@
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="G5:G8"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H12:H33"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="L6:O9"/>
     <mergeCell ref="F12:F33"/>
     <mergeCell ref="G12:G33"/>
-    <mergeCell ref="E30:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/flow chart.xlsx
+++ b/flow chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\fim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77066DAE-ECDD-4077-856C-07A09307DDFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BE87F1-D758-4949-BA40-F417633ECC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FE2F8837-6B08-4E68-910D-E1184DA7B64E}"/>
   </bookViews>
@@ -668,6 +668,66 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,66 +756,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1417,23 +1417,23 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="46" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
       <c r="P1" s="44"/>
       <c r="Q1" s="44"/>
       <c r="R1" s="44"/>
@@ -1475,13 +1475,13 @@
     <row r="3" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
@@ -1505,7 +1505,7 @@
     <row r="4" spans="1:25" ht="52" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
-      <c r="C4" s="60"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="32" t="s">
         <v>23</v>
       </c>
@@ -1536,25 +1536,25 @@
     <row r="5" spans="1:25" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="52" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="68" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="42"/>
@@ -1577,23 +1577,23 @@
     <row r="6" spans="1:25" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
-      <c r="C6" s="67"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="48"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>
@@ -1614,19 +1614,19 @@
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="47" t="s">
+      <c r="E7" s="55"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="67" t="s">
         <v>61</v>
       </c>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
@@ -1650,16 +1650,16 @@
       <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="47"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
@@ -1680,15 +1680,15 @@
       <c r="F9" s="29"/>
       <c r="G9" s="41"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="69" t="s">
         <v>62</v>
       </c>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="28"/>
       <c r="R9" s="28"/>
@@ -1713,7 +1713,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="49"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
@@ -1742,7 +1742,7 @@
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="49"/>
+      <c r="I11" s="69"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
@@ -1763,7 +1763,7 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -1772,16 +1772,16 @@
       <c r="E12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="49"/>
+      <c r="I12" s="69"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -1802,16 +1802,16 @@
     <row r="13" spans="1:25" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="67"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="58"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
@@ -1838,9 +1838,9 @@
         <v>49</v>
       </c>
       <c r="E14" s="27"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="58"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
@@ -1868,12 +1868,12 @@
       <c r="D15" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="58"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
@@ -1901,10 +1901,10 @@
       <c r="D16" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="58"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
@@ -1931,9 +1931,9 @@
         <v>48</v>
       </c>
       <c r="E17" s="27"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="58"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="28"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
@@ -1955,18 +1955,18 @@
     <row r="18" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="52" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="58"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="28"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
@@ -1988,14 +1988,14 @@
     <row r="19" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="67"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="58"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="28"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
@@ -2023,10 +2023,10 @@
       <c r="D20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="58"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="28"/>
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
@@ -2053,9 +2053,9 @@
         <v>47</v>
       </c>
       <c r="E21" s="27"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="58"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="28"/>
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
@@ -2077,7 +2077,7 @@
     <row r="22" spans="1:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="53" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -2086,9 +2086,9 @@
       <c r="E22" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="58"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="28"/>
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
@@ -2110,16 +2110,16 @@
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="68"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="58"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="28"/>
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
@@ -2146,9 +2146,9 @@
         <v>46</v>
       </c>
       <c r="E24" s="27"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="58"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="28"/>
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
@@ -2179,9 +2179,9 @@
       <c r="E25" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="58"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="28"/>
       <c r="J25" s="43"/>
       <c r="K25" s="43"/>
@@ -2212,9 +2212,9 @@
       <c r="E26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="58"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="28"/>
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
@@ -2242,12 +2242,12 @@
       <c r="D27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="58"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="28"/>
       <c r="J27" s="43"/>
       <c r="K27" s="43"/>
@@ -2275,10 +2275,10 @@
       <c r="D28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="58"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="28"/>
       <c r="J28" s="43"/>
       <c r="K28" s="43"/>
@@ -2305,9 +2305,9 @@
         <v>13</v>
       </c>
       <c r="E29" s="27"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="58"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="28"/>
       <c r="J29" s="43"/>
       <c r="K29" s="43"/>
@@ -2329,18 +2329,18 @@
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="53" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="58"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="28"/>
       <c r="J30" s="43"/>
       <c r="K30" s="43"/>
@@ -2362,14 +2362,14 @@
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
-      <c r="C31" s="68"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="28"/>
       <c r="J31" s="43"/>
       <c r="K31" s="43"/>
@@ -2391,16 +2391,16 @@
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
-      <c r="C32" s="68"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="62" t="s">
+      <c r="E32" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="58"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="28"/>
       <c r="J32" s="43"/>
       <c r="K32" s="43"/>
@@ -2422,14 +2422,14 @@
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
-      <c r="C33" s="68"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="58"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="28"/>
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
@@ -3042,6 +3042,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="L6:O9"/>
+    <mergeCell ref="F12:F33"/>
+    <mergeCell ref="G12:G33"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H12:H33"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G5:G8"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E27:E28"/>
@@ -3055,18 +3064,9 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="H12:H33"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G5:G8"/>
     <mergeCell ref="F1:O1"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="L6:O9"/>
-    <mergeCell ref="F12:F33"/>
-    <mergeCell ref="G12:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
